--- a/results/javascript/javascript_overall.xlsx
+++ b/results/javascript/javascript_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734915CA-AA67-4FF0-8C5F-4A87F18785D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5870855-F828-4DD6-8A44-B1F172410841}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,31 +514,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>30.58907510862818</v>
+        <v>30.592414921835317</v>
       </c>
       <c r="F3" s="1">
-        <v>165.05880087036488</v>
+        <v>165.06781659292028</v>
       </c>
       <c r="G3" s="1">
-        <v>1.239922591352723</v>
+        <v>1.2400602963634322</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="1">
-        <v>6417</v>
+        <v>730</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>137.4275956284153</v>
+        <v>18.134529147982065</v>
       </c>
       <c r="O3" s="1">
-        <v>499.51864146687006</v>
+        <v>64.150186873456377</v>
       </c>
       <c r="P3" s="1">
-        <v>18.462740250532065</v>
+        <v>2.4801895136795258</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -546,37 +546,37 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>27815</v>
+        <v>544</v>
       </c>
       <c r="D4" s="1">
         <v>18</v>
       </c>
       <c r="E4" s="1">
-        <v>88.188533378477516</v>
+        <v>85.617529205937132</v>
       </c>
       <c r="F4" s="1">
-        <v>252.36128086046429</v>
+        <v>48.583826805518378</v>
       </c>
       <c r="G4" s="1">
-        <v>1.8957392860702631</v>
+        <v>0.36498256238221033</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="1">
-        <v>15293</v>
+        <v>479</v>
       </c>
       <c r="M4" s="1">
         <v>23</v>
       </c>
       <c r="N4" s="1">
-        <v>670.00136612021856</v>
+        <v>82.139013452914796</v>
       </c>
       <c r="O4" s="1">
-        <v>2117.1388818592181</v>
+        <v>54.106356974901608</v>
       </c>
       <c r="P4" s="1">
-        <v>78.251704751765729</v>
+        <v>2.0918726153871567</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>6.9030528751199141</v>
+        <v>6.9038320446977819</v>
       </c>
       <c r="F5" s="1">
-        <v>4.1777789510723577</v>
+        <v>4.1773709170154349</v>
       </c>
       <c r="G5" s="1">
-        <v>3.1383497734125083E-2</v>
+        <v>3.1382203534861076E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>12</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>5.2950819672131146</v>
+        <v>5.6591928251121075</v>
       </c>
       <c r="O5" s="1">
-        <v>2.7045454288822612</v>
+        <v>2.4793002424606447</v>
       </c>
       <c r="P5" s="1">
-        <v>9.9962875464636267E-2</v>
+        <v>9.5855285265869478E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -718,19 +718,19 @@
         <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>746</v>
+        <v>462</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>29.20257234726688</v>
+        <v>27.366403607666292</v>
       </c>
       <c r="O10" s="1">
-        <v>67.371287419174394</v>
+        <v>54.91756576103699</v>
       </c>
       <c r="P10" s="1">
-        <v>2.2056369293743083</v>
+        <v>1.8439513932942531</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -756,19 +756,19 @@
         <v>11</v>
       </c>
       <c r="L11" s="1">
-        <v>11185</v>
+        <v>313</v>
       </c>
       <c r="M11" s="1">
         <v>23</v>
       </c>
       <c r="N11" s="1">
-        <v>393.15541264737408</v>
+        <v>66.096956031567075</v>
       </c>
       <c r="O11" s="1">
-        <v>1472.0181050780466</v>
+        <v>32.155654089834329</v>
       </c>
       <c r="P11" s="1">
-        <v>48.191709222758355</v>
+        <v>1.0796811974376637</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>4.542336548767417</v>
+        <v>4.5839909808342725</v>
       </c>
       <c r="O12" s="1">
-        <v>3.4733062149070575</v>
+        <v>3.5539794092547603</v>
       </c>
       <c r="P12" s="1">
-        <v>0.11371094049249185</v>
+        <v>0.11933094980848359</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -898,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>16.292759706190974</v>
+        <v>17.486425339366516</v>
       </c>
       <c r="F17" s="1">
-        <v>63.646216222949164</v>
+        <v>65.934415147148016</v>
       </c>
       <c r="G17" s="1">
-        <v>2.0617031741953791</v>
+        <v>2.2176143628772422</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>10</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>29.718722073279714</v>
+        <v>29.977682596934176</v>
       </c>
       <c r="O17" s="1">
-        <v>196.37502129389887</v>
+        <v>197.23938232098257</v>
       </c>
       <c r="P17" s="1">
-        <v>2.9352237054630828</v>
+        <v>2.9614054075571348</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -930,37 +930,37 @@
         <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>17595</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1">
         <v>25</v>
       </c>
       <c r="E18" s="1">
-        <v>1335.3714585519413</v>
+        <v>66.237556561085967</v>
       </c>
       <c r="F18" s="1">
-        <v>4542.6921305282794</v>
+        <v>20.9204513894251</v>
       </c>
       <c r="G18" s="1">
-        <v>147.15223214676354</v>
+        <v>0.70363092438943098</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="1">
-        <v>3506</v>
+        <v>804</v>
       </c>
       <c r="M18" s="1">
         <v>17</v>
       </c>
       <c r="N18" s="1">
-        <v>107.60232350312779</v>
+        <v>76.958521190261493</v>
       </c>
       <c r="O18" s="1">
-        <v>325.76680699776369</v>
+        <v>44.74458213320132</v>
       </c>
       <c r="P18" s="1">
-        <v>4.8692468525403072</v>
+        <v>0.67180725232909289</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>4.570828961175236</v>
+        <v>4.9276018099547514</v>
       </c>
       <c r="F19" s="1">
-        <v>3.5962947361260311</v>
+        <v>3.4906738247717946</v>
       </c>
       <c r="G19" s="1">
-        <v>0.11649541344045679</v>
+        <v>0.11740406573195188</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>12</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>2.0694816800714926</v>
+        <v>2.088142470694319</v>
       </c>
       <c r="O19" s="1">
-        <v>5.7886786519579747</v>
+        <v>5.8113670889284741</v>
       </c>
       <c r="P19" s="1">
-        <v>8.652356440540343E-2</v>
+        <v>8.7253436509172985E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.14060860440713535</v>
+        <v>0.15158371040723981</v>
       </c>
       <c r="F20" s="1">
-        <v>0.3476173539595126</v>
+        <v>0.35861691140604879</v>
       </c>
       <c r="G20" s="1">
-        <v>1.1260430620937812E-2</v>
+        <v>1.2061591988491745E-2</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -1030,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>2.1177390527256481</v>
+        <v>2.1368349864743013</v>
       </c>
       <c r="O20" s="1">
-        <v>1.750459630640391</v>
+        <v>1.7466921696279536</v>
       </c>
       <c r="P20" s="1">
-        <v>2.6164175919411899E-2</v>
+        <v>2.6225308432856777E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1090,31 +1090,31 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>47.717131474103589</v>
+        <v>46.356000000000002</v>
       </c>
       <c r="F24" s="1">
-        <v>72.6073025514888</v>
+        <v>69.482985428088796</v>
       </c>
       <c r="G24" s="1">
-        <v>4.5829322994528576</v>
+        <v>4.3944898516210049</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="1">
-        <v>42716</v>
+        <v>16517</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>26.958872752244577</v>
+        <v>20.685010958464744</v>
       </c>
       <c r="O24" s="1">
-        <v>502.21295658861345</v>
+        <v>171.37448111493558</v>
       </c>
       <c r="P24" s="1">
-        <v>1.7909469791980743</v>
+        <v>0.62648991469281545</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1122,37 +1122,37 @@
         <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>7287</v>
+        <v>232</v>
       </c>
       <c r="D25" s="1">
         <v>17</v>
       </c>
       <c r="E25" s="1">
-        <v>107.2191235059761</v>
+        <v>78.5</v>
       </c>
       <c r="F25" s="1">
-        <v>456.09914063553634</v>
+        <v>42.85708809520311</v>
       </c>
       <c r="G25" s="1">
-        <v>28.788722482686836</v>
+        <v>2.7105202452665802</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="1">
-        <v>286809</v>
+        <v>976</v>
       </c>
       <c r="M25" s="1">
         <v>13</v>
       </c>
       <c r="N25" s="1">
-        <v>6460.2866826054887</v>
+        <v>63.415847009140961</v>
       </c>
       <c r="O25" s="1">
-        <v>33719.839059556762</v>
+        <v>46.607155118333665</v>
       </c>
       <c r="P25" s="1">
-        <v>120.24867759878825</v>
+        <v>0.17038075006381415</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>4.5577689243027892</v>
+        <v>4.5759999999999996</v>
       </c>
       <c r="F26" s="1">
-        <v>3.3075504293991296</v>
+        <v>3.3015487274913875</v>
       </c>
       <c r="G26" s="1">
-        <v>0.20877073190004661</v>
+        <v>0.20880827569806712</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>12</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>4.0230180329119722</v>
+        <v>4.2267466723686322</v>
       </c>
       <c r="O26" s="1">
-        <v>4.552282856930983</v>
+        <v>4.5735202024716397</v>
       </c>
       <c r="P26" s="1">
-        <v>1.6233944433564563E-2</v>
+        <v>1.6719317035134778E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>3.1246025892107739E-2</v>
+        <v>3.2768482386272516E-2</v>
       </c>
       <c r="O27" s="1">
-        <v>0.23938747371298078</v>
+        <v>0.24516633822593475</v>
       </c>
       <c r="P27" s="1">
-        <v>8.5368222241090981E-4</v>
+        <v>8.9624918086669446E-4</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">

--- a/results/javascript/javascript_overall.xlsx
+++ b/results/javascript/javascript_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5870855-F828-4DD6-8A44-B1F172410841}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A12878-00DE-4763-BF16-276F883F72D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="30" windowWidth="24000" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,10 +517,10 @@
         <v>30.592414921835317</v>
       </c>
       <c r="F3" s="1">
-        <v>165.06781659292028</v>
+        <v>165.07247472271936</v>
       </c>
       <c r="G3" s="1">
-        <v>1.2400602963634322</v>
+        <v>1.240095290234063</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>10</v>
@@ -535,10 +535,10 @@
         <v>18.134529147982065</v>
       </c>
       <c r="O3" s="1">
-        <v>64.150186873456377</v>
+        <v>64.198185523548801</v>
       </c>
       <c r="P3" s="1">
-        <v>2.4801895136795258</v>
+        <v>2.4820452487043485</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -555,10 +555,10 @@
         <v>85.617529205937132</v>
       </c>
       <c r="F4" s="1">
-        <v>48.583826805518378</v>
+        <v>48.585197816391783</v>
       </c>
       <c r="G4" s="1">
-        <v>0.36498256238221033</v>
+        <v>0.36499286200442066</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
@@ -573,10 +573,10 @@
         <v>82.139013452914796</v>
       </c>
       <c r="O4" s="1">
-        <v>54.106356974901608</v>
+        <v>54.146840599701285</v>
       </c>
       <c r="P4" s="1">
-        <v>2.0918726153871567</v>
+        <v>2.0934378027482152</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -593,10 +593,10 @@
         <v>6.9038320446977819</v>
       </c>
       <c r="F5" s="1">
-        <v>4.1773709170154349</v>
+        <v>4.1774888002973007</v>
       </c>
       <c r="G5" s="1">
-        <v>3.1382203534861076E-2</v>
+        <v>3.138308912467782E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>12</v>
@@ -611,10 +611,10 @@
         <v>5.6591928251121075</v>
       </c>
       <c r="O5" s="1">
-        <v>2.4793002424606447</v>
+        <v>2.4811553121122221</v>
       </c>
       <c r="P5" s="1">
-        <v>9.5855285265869478E-2</v>
+        <v>9.59270064021783E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -709,10 +709,10 @@
         <v>505.93656093489147</v>
       </c>
       <c r="F10" s="1">
-        <v>1393.4277666544704</v>
+        <v>1394.0096951687317</v>
       </c>
       <c r="G10" s="1">
-        <v>40.258357430161986</v>
+        <v>40.275170275927344</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>10</v>
@@ -727,10 +727,10 @@
         <v>27.366403607666292</v>
       </c>
       <c r="O10" s="1">
-        <v>54.91756576103699</v>
+        <v>54.948548875355627</v>
       </c>
       <c r="P10" s="1">
-        <v>1.8439513932942531</v>
+        <v>1.8449917044592643</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>84.936560934891489</v>
       </c>
       <c r="F11" s="1">
-        <v>39.654067348609061</v>
+        <v>39.670627828490993</v>
       </c>
       <c r="G11" s="1">
-        <v>1.1456694455808718</v>
+        <v>1.1461479043386604</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>11</v>
@@ -765,10 +765,10 @@
         <v>66.096956031567075</v>
       </c>
       <c r="O11" s="1">
-        <v>32.155654089834329</v>
+        <v>32.173795504022117</v>
       </c>
       <c r="P11" s="1">
-        <v>1.0796811974376637</v>
+        <v>1.0802903265114734</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -785,10 +785,10 @@
         <v>4.2470784641068446</v>
       </c>
       <c r="F12" s="1">
-        <v>3.0120604507743272</v>
+        <v>3.0133183587225751</v>
       </c>
       <c r="G12" s="1">
-        <v>8.7023245216123785E-2</v>
+        <v>8.7059588189191128E-2</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>12</v>
@@ -803,10 +803,10 @@
         <v>4.5839909808342725</v>
       </c>
       <c r="O12" s="1">
-        <v>3.5539794092547603</v>
+        <v>3.5559844753715319</v>
       </c>
       <c r="P12" s="1">
-        <v>0.11933094980848359</v>
+        <v>0.11939827333982429</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -823,10 +823,10 @@
         <v>3.3388981636060101E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>8.1649544311435618E-2</v>
+        <v>8.1683643099437625E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>2.3589859607805017E-3</v>
+        <v>2.3599711293182408E-3</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>13</v>
@@ -901,10 +901,10 @@
         <v>17.486425339366516</v>
       </c>
       <c r="F17" s="1">
-        <v>65.934415147148016</v>
+        <v>65.971740038417749</v>
       </c>
       <c r="G17" s="1">
-        <v>2.2176143628772422</v>
+        <v>2.218869734822043</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>10</v>
@@ -919,10 +919,10 @@
         <v>29.977682596934176</v>
       </c>
       <c r="O17" s="1">
-        <v>197.23938232098257</v>
+        <v>197.26161775111026</v>
       </c>
       <c r="P17" s="1">
-        <v>2.9614054075571348</v>
+        <v>2.961739256316164</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -939,10 +939,10 @@
         <v>66.237556561085967</v>
       </c>
       <c r="F18" s="1">
-        <v>20.9204513894251</v>
+        <v>20.932294272564064</v>
       </c>
       <c r="G18" s="1">
-        <v>0.70363092438943098</v>
+        <v>0.70402924365393393</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>11</v>
@@ -957,10 +957,10 @@
         <v>76.958521190261493</v>
       </c>
       <c r="O18" s="1">
-        <v>44.74458213320132</v>
+        <v>44.749626333897488</v>
       </c>
       <c r="P18" s="1">
-        <v>0.67180725232909289</v>
+        <v>0.67188298732198659</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>4.9276018099547514</v>
       </c>
       <c r="F19" s="1">
-        <v>3.4906738247717946</v>
+        <v>3.4926498644572446</v>
       </c>
       <c r="G19" s="1">
-        <v>0.11740406573195188</v>
+        <v>0.11747052713876484</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>12</v>
@@ -995,10 +995,10 @@
         <v>2.088142470694319</v>
       </c>
       <c r="O19" s="1">
-        <v>5.8113670889284741</v>
+        <v>5.8120222230367409</v>
       </c>
       <c r="P19" s="1">
-        <v>8.7253436509172985E-2</v>
+        <v>8.7263272869782443E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1015,10 +1015,10 @@
         <v>0.15158371040723981</v>
       </c>
       <c r="F20" s="1">
-        <v>0.35861691140604879</v>
+        <v>0.35881992127875101</v>
       </c>
       <c r="G20" s="1">
-        <v>1.2061591988491745E-2</v>
+        <v>1.2068419949405716E-2</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>13</v>
@@ -1033,10 +1033,10 @@
         <v>2.1368349864743013</v>
       </c>
       <c r="O20" s="1">
-        <v>1.7466921696279536</v>
+        <v>1.7468890798556946</v>
       </c>
       <c r="P20" s="1">
-        <v>2.6225308432856777E-2</v>
+        <v>2.622826489624849E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
         <v>46.356000000000002</v>
       </c>
       <c r="F24" s="1">
-        <v>69.482985428088796</v>
+        <v>69.622369691398632</v>
       </c>
       <c r="G24" s="1">
-        <v>4.3944898516210049</v>
+        <v>4.4033052864618796</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>10</v>
@@ -1111,10 +1111,10 @@
         <v>20.685010958464744</v>
       </c>
       <c r="O24" s="1">
-        <v>171.37448111493558</v>
+        <v>171.37562624910205</v>
       </c>
       <c r="P24" s="1">
-        <v>0.62648991469281545</v>
+        <v>0.62649410093455704</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1131,10 +1131,10 @@
         <v>78.5</v>
       </c>
       <c r="F25" s="1">
-        <v>42.85708809520311</v>
+        <v>42.943060274074682</v>
       </c>
       <c r="G25" s="1">
-        <v>2.7105202452665802</v>
+        <v>2.7159576032794113</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>11</v>
@@ -1149,10 +1149,10 @@
         <v>63.415847009140961</v>
       </c>
       <c r="O25" s="1">
-        <v>46.607155118333665</v>
+        <v>46.607466550032129</v>
       </c>
       <c r="P25" s="1">
-        <v>0.17038075006381415</v>
+        <v>0.17038188855781242</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v>4.5759999999999996</v>
       </c>
       <c r="F26" s="1">
-        <v>3.3015487274913875</v>
+        <v>3.3081717005016529</v>
       </c>
       <c r="G26" s="1">
-        <v>0.20880827569806712</v>
+        <v>0.20922714928995231</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>12</v>
@@ -1187,10 +1187,10 @@
         <v>4.2267466723686322</v>
       </c>
       <c r="O26" s="1">
-        <v>4.5735202024716397</v>
+        <v>4.5735507629974004</v>
       </c>
       <c r="P26" s="1">
-        <v>1.6719317035134778E-2</v>
+        <v>1.6719428754575459E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1225,10 +1225,10 @@
         <v>3.2768482386272516E-2</v>
       </c>
       <c r="O27" s="1">
-        <v>0.24516633822593475</v>
+        <v>0.24516797644154623</v>
       </c>
       <c r="P27" s="1">
-        <v>8.9624918086669446E-4</v>
+        <v>8.9625516965541037E-4</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
         <v>6.4444444444444446</v>
       </c>
       <c r="F31" s="1">
-        <v>2.9481109247603552</v>
+        <v>3.1269438398822866</v>
       </c>
       <c r="G31" s="1">
-        <v>0.98270364158678503</v>
+        <v>1.0423146132940955</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>10</v>
@@ -1303,10 +1303,10 @@
         <v>74.464872521246463</v>
       </c>
       <c r="O31" s="1">
-        <v>294.36580610337103</v>
+        <v>294.40750983753276</v>
       </c>
       <c r="P31" s="1">
-        <v>4.9545019960785748</v>
+        <v>4.955203916036206</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
         <v>67.888888888888886</v>
       </c>
       <c r="F32" s="1">
-        <v>24.296522130838419</v>
+        <v>25.770353336947309</v>
       </c>
       <c r="G32" s="1">
-        <v>8.0988407102794735</v>
+        <v>8.590117778982437</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>11</v>
@@ -1341,10 +1341,10 @@
         <v>64.695184135977343</v>
       </c>
       <c r="O32" s="1">
-        <v>20.40937973922852</v>
+        <v>20.412271200564732</v>
       </c>
       <c r="P32" s="1">
-        <v>0.34351242759909445</v>
+        <v>0.3435610940904627</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -1361,10 +1361,10 @@
         <v>3.5555555555555554</v>
       </c>
       <c r="F33" s="1">
-        <v>2.6293687924887181</v>
+        <v>2.7888667551135855</v>
       </c>
       <c r="G33" s="1">
-        <v>0.87645626416290601</v>
+        <v>0.9296222517045285</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>12</v>
@@ -1379,10 +1379,10 @@
         <v>5.1269121813031164</v>
       </c>
       <c r="O33" s="1">
-        <v>3.672312119233569</v>
+        <v>3.6728323872986905</v>
       </c>
       <c r="P33" s="1">
-        <v>6.1809073430821614E-2</v>
+        <v>6.1817830117616393E-2</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
